--- a/Examples/Import.xlsx
+++ b/Examples/Import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>TestHostD</t>
   </si>
   <si>
-    <t>192.168.2.2</t>
-  </si>
-  <si>
     <t>TestNetworkA</t>
   </si>
   <si>
@@ -122,6 +119,39 @@
   </si>
   <si>
     <t>Tag1;Tag2</t>
+  </si>
+  <si>
+    <t>IPv4-Address</t>
+  </si>
+  <si>
+    <t>IPv6-Address</t>
+  </si>
+  <si>
+    <t>fd00:1234::1</t>
+  </si>
+  <si>
+    <t>fd00:1234::2</t>
+  </si>
+  <si>
+    <t>SubnetMask</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>Subnet4</t>
+  </si>
+  <si>
+    <t>MaskLength4</t>
+  </si>
+  <si>
+    <t>Subnet6</t>
+  </si>
+  <si>
+    <t>MaskLength6</t>
+  </si>
+  <si>
+    <t>fd00::</t>
   </si>
 </sst>
 </file>
@@ -484,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -540,23 +570,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="2" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,75 +594,84 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -642,10 +681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,13 +692,15 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,66 +711,87 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
     </row>
